--- a/biology/Zoologie/Jacques_de_Beaumont_(zoologiste)/Jacques_de_Beaumont_(zoologiste).xlsx
+++ b/biology/Zoologie/Jacques_de_Beaumont_(zoologiste)/Jacques_de_Beaumont_(zoologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Bouthillier de Beaumont, né à Genève le 26 septembre 1901 et mort à Bevaix en 1985, est un enseignant et directeur de musée vaudois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques de Beaumont fait toutes ses études à Genève. Licencié ès sciences, docteur en 1929, assistant en biologie générale, il se passionne pour l'entomologie et rejoint en 1932 son ami Robert Matthey, nommé professeur extraordinaire de zoologie à l'Université de Lausanne. Chef de travaux au laboratoire de zoologie, puis privat-docent d'entomologie, il est chargé de cours puis professeur extraordinaire d'entomologie de 1938 à 1967 à l'école de pharmacie puis à la Faculté des sciences dont il sera doyen de 1960 à 1962.
 Jacques de Beaumont est conservateur au musée cantonal de zoologie de Lausanne depuis 10 ans quand il est nommé directeur, succédant en 1943 à Paul Murisier. Il réorganise et développe les collections publiques et scientifiques du musée zoologique ainsi que sa bibliothèque. Il fait de ce musée un véritable institut de recherche, publiant lui-même, pendant cette période, 138 travaux, dont 128 études sur les Hyménoptères aculéates, domaine où ses connaissances sont mondialement reconnues.
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Jacques de Beaumont », sur la base de données des personnalités vaudoises sur la plateforme « Patrinum » de la Bibliothèque cantonale et universitaire de Lausanne.
 Claude Besuchet, "Jacques de Beaumont (1901-1985): notice biographique", in Bulletin de la Société vaudoise des sciences naturelles, 1986, p. 81-85
